--- a/dataset/parking-birmingham.xlsx
+++ b/dataset/parking-birmingham.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\S2\Thesis\loss-function-comparison\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1272F4CA-CA86-4085-B419-F7A6DDC24676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9213025-6AF7-4226-B949-662B252B30C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E264E7D-B458-4C33-9EF3-56A9B17947C9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>Occupancy</t>
   </si>
   <si>
-    <t>LastUpdated</t>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
@@ -894,9 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F162649-2F9A-41CD-8340-40AC351F4FE0}">
   <dimension ref="A1:B1313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
